--- a/idis/expdata/10055.xlsx
+++ b/idis/expdata/10055.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Documents\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C68E4D7-BB14-440C-9A9A-6A14B66FB33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2532CEC-9B84-DB4F-8460-8441E893D887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="1980" windowWidth="21600" windowHeight="11385" xr2:uid="{37A69F60-906B-45BC-86F3-E3C8F900ED2E}"/>
+    <workbookView xWindow="33540" yWindow="2640" windowWidth="21600" windowHeight="11380" xr2:uid="{37A69F60-906B-45BC-86F3-E3C8F900ED2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>X</t>
   </si>
   <si>
-    <t xml:space="preserve">Y </t>
-  </si>
-  <si>
     <t>Q2</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -442,16 +442,16 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,13 +459,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -474,10 +474,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -505,7 +505,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -533,7 +533,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -561,7 +561,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -589,7 +589,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -617,7 +617,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -645,7 +645,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -673,7 +673,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -701,7 +701,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -729,7 +729,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -757,7 +757,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -785,7 +785,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
